--- a/2015.xlsx
+++ b/2015.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyagi\Desktop\Work\ML\Research Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIdhi Kaitwade\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5057C0ED-3B0D-4C70-B173-ADCB453A3C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EB4228-A7B6-4D78-9BF3-27644B816C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
   <si>
     <t>Date</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>2015-01-01</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>2015-01-02</t>
@@ -1473,15 +1470,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B339" sqref="B339"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1489,2791 +1488,2881 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>126456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>121917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>124654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>124581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>119201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>124592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>127170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>127282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>127913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>129806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>128884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>124447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>128610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>128706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>122652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>122517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>125112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>124922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>121917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>128468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>127701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>128207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>126701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>127249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>126311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>119719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>114534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>123878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>125572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>126362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>126805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>127088</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B34">
+        <v>120454</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>127560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>125985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>127780</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>128277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>127089</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>126204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>120087</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>127386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>128358</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>125995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>46</v>
       </c>
       <c r="B45">
         <v>125267</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>127880</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>127581</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>121625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>127282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>51</v>
       </c>
       <c r="B50">
         <v>126834</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>126927</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>129087</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>128071</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>127403</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>121245</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>127012</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>130252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B58">
+        <v>128585</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>60</v>
       </c>
       <c r="B59">
         <v>126792</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>127538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>62</v>
       </c>
       <c r="B61">
         <v>123388</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>109346</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>116492</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>118540</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>118427</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>119615</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>108734</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>115620</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>115116</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>122668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>72</v>
       </c>
       <c r="B71">
         <v>124482</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>125727</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>126037</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>124633</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>121131</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>112812</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>122876</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>123622</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>125866</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>81</v>
       </c>
       <c r="B80">
         <v>126597</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>125425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>83</v>
       </c>
       <c r="B82">
         <v>126396</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>121285</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>129642</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>132075</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>133761</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>132377</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>131065</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>89</v>
-      </c>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>90</v>
       </c>
       <c r="B89">
         <v>128308</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>118302</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>122808</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>126797</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>127213</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>129755</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>128582</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>127698</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>119735</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>125713</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>99</v>
-      </c>
-      <c r="B98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>100</v>
       </c>
       <c r="B99">
         <v>125936</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>128893</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>129528</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>130515</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>121349</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>112670</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>121488</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>121265</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>125342</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>126462</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>128492</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>126900</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>121846</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>131724</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>126918</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>130444</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>128056</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>129521</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>124478</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>119903</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>127945</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>120</v>
-      </c>
-      <c r="B119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>121</v>
       </c>
       <c r="B120">
         <v>124198</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>130335</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>128909</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>125203</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>125764</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>131138</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>132620</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>132820</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>135054</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>134710</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>135430</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>128561</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>131965</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>132929</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>126043</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>129778</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>129434</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>130174</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>124790</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>132421</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>125060</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>133621</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>134909</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>134892</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>128571</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>137828</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>136051</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>135425</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>136292</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>130931</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>134364</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>124940</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>129209</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>126931</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>128752</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>132577</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>133382</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>129234</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>124388</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>133588</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>134348</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>134208</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>132185</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>130835</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164">
         <v>125021</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <v>122185</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166">
         <v>132265</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167">
         <v>132992</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168">
         <v>135298</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169">
         <v>135570</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170">
         <v>135110</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171">
         <v>134122</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172">
         <v>123014</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173">
         <v>132294</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174">
         <v>128376</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175">
         <v>126262</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176">
         <v>130186</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177">
         <v>130939</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178">
         <v>133008</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179">
         <v>128483</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180">
         <v>129538</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181">
         <v>132099</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182">
         <v>133992</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183">
         <v>138193</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184">
         <v>142448</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185">
         <v>135596</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186">
         <v>138002</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187">
         <v>137570</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188">
         <v>139519</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189">
         <v>138382</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190">
         <v>130696</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191">
         <v>129647</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192">
         <v>139819</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193">
         <v>141849</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194">
         <v>140878</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195">
         <v>140486</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196">
         <v>132919</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197">
         <v>128408</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198">
         <v>134652</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199">
         <v>135554</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>134411</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201">
         <v>136756</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202">
         <v>134893</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203">
         <v>131458</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>124191</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>205</v>
-      </c>
-      <c r="B204" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>206</v>
       </c>
       <c r="B205">
         <v>130620</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206">
         <v>130332</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207">
         <v>133207</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208">
         <v>135404</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209">
         <v>131904</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210">
         <v>129641</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>126300</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
         <v>212</v>
-      </c>
-      <c r="B211" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>213</v>
       </c>
       <c r="B212">
         <v>132943</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213">
         <v>134259</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214">
         <v>134970</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215">
         <v>137782</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216">
         <v>139443</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217">
         <v>137541</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218">
         <v>131493</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219">
         <v>137080</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220">
         <v>137050</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221">
         <v>135466</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222">
         <v>136860</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223">
         <v>136279</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224">
         <v>126367</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225">
         <v>126922</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226">
         <v>135459</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227">
         <v>134424</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228">
         <v>136548</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229">
         <v>137472</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230">
         <v>137284</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231">
         <v>137422</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232">
         <v>132908</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233">
         <v>140381</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234">
         <v>143233</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235">
         <v>142624</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236">
         <v>144661</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237">
         <v>143268</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238">
         <v>136119</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239">
         <v>138299</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240">
         <v>145624</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241">
         <v>145283</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242">
         <v>144670</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243">
         <v>144899</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
         <v>245</v>
       </c>
-      <c r="B244">
-        <v>32044</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+      <c r="B245">
+        <v>124589</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
         <v>246</v>
-      </c>
-      <c r="B245">
-        <v>31257</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>247</v>
       </c>
       <c r="B246">
         <v>136840</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247">
         <v>144892</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248">
         <v>145543</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249">
         <v>146275</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250">
         <v>146882</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251">
         <v>147655</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B252">
         <v>144515</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253">
         <v>140640</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254">
         <v>147387</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255">
         <v>145626</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B256">
         <v>143308</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B257">
         <v>138274</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B258">
         <v>138053</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B259">
         <v>137343</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B260">
         <v>128076</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B261">
         <v>134760</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B262">
         <v>132901</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B263">
         <v>132844</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B264">
         <v>134244</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B265">
         <v>135022</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B266">
         <v>136342</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B267">
         <v>130842</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B268">
         <v>139327</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B269">
         <v>142057</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B270">
         <v>141628</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B271">
         <v>142195</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>137747</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
         <v>273</v>
-      </c>
-      <c r="B272" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>274</v>
       </c>
       <c r="B273">
         <v>141529</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B274">
         <v>135550</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B275">
         <v>143281</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B276">
         <v>144464</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B277">
         <v>144532</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B278">
         <v>144192</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B279">
         <v>145222</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B280">
         <v>143982</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B281">
         <v>138817</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B282">
         <v>141680</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B283">
         <v>144649</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B284">
         <v>142684</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B285">
         <v>143999</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B286">
         <v>143771</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B287">
         <v>145052</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B288">
         <v>139432</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B289">
         <v>143934</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B290">
         <v>144497</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B291">
         <v>141873</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B292">
         <v>131201</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B293">
         <v>137077</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B294">
         <v>136326</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B295">
         <v>132168</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B296">
         <v>137990</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B297">
         <v>139597</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B298">
         <v>133872</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B299">
         <v>134549</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B300">
         <v>133841</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B301">
         <v>133386</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B302">
         <v>128909</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B303">
         <v>135290</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B304">
         <v>136920</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B305">
         <v>137463</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B306">
         <v>136381</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B307">
         <v>137646</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B308">
         <v>135796</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B309">
         <v>130529</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B310">
         <v>131915</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B311">
         <v>128609</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B312">
         <v>120530</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B313">
         <v>121808</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B314">
         <v>125029</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B315">
         <v>126343</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B316">
         <v>124427</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B317">
         <v>127764</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B318">
         <v>126458</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B319">
         <v>130304</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B320">
         <v>130622</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B321">
         <v>129161</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B322">
         <v>128909</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B323">
         <v>122149</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B324">
         <v>129997</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B325">
         <v>130123</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B326">
         <v>129814</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B327">
         <v>130640</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B328">
         <v>129449</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B329">
         <v>130334</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B330">
         <v>125093</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B331">
         <v>131976</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B332">
         <v>126917</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B333">
         <v>127791</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B334">
         <v>128016</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B335">
         <v>129158</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B336">
         <v>129593</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B337">
         <v>122244</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B338">
         <v>130307</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>131409</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
-        <v>341</v>
       </c>
       <c r="B340">
         <v>132399</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B341">
         <v>133764</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B342">
         <v>131397</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B343">
         <v>132432</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B344">
         <v>125707</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B345">
         <v>133652</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B346">
         <v>132031</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B347">
         <v>132969</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B348">
         <v>133950</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B349">
         <v>133907</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B350">
         <v>133831</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B351">
         <v>129147</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B352">
         <v>134782</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B353">
         <v>135392</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B354">
         <v>135155</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B355">
         <v>133480</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B356">
         <v>132308</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B357">
         <v>132289</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B358">
         <v>125021</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B359">
         <v>132293</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B360">
         <v>132392</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B361">
         <v>133797</v>
